--- a/documentacion/LATEST EXCELL SHEET FOR LINE TAKEOFF(AutoRecovered).xlsx
+++ b/documentacion/LATEST EXCELL SHEET FOR LINE TAKEOFF(AutoRecovered).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rauls\OneDrive\Documentos\Pcloud2022\me3co\documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06DE10A-BEB1-4D6B-9BB5-8E32215CE2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073AE773-6EF7-4C03-AA66-F7D833E25286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{6235322D-F1E4-4934-8647-6AAAF961BEB6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="398">
   <si>
     <t>Takeoff Name</t>
   </si>
@@ -670,9 +670,6 @@
     <t>fill remaining materials</t>
   </si>
   <si>
-    <t>total grout materials this wall</t>
-  </si>
-  <si>
     <t>control joints</t>
   </si>
   <si>
@@ -1093,9 +1090,6 @@
     <t>total sq area filled</t>
   </si>
   <si>
-    <t>total sq fill materials</t>
-  </si>
-  <si>
     <t>remaining unfilled area</t>
   </si>
   <si>
@@ -1226,6 +1220,15 @@
   </si>
   <si>
     <t>Wire</t>
+  </si>
+  <si>
+    <t>no da lo mismo con ejemplo</t>
+  </si>
+  <si>
+    <t>total fill materials</t>
+  </si>
+  <si>
+    <t>total aditional fill materials</t>
   </si>
 </sst>
 </file>
@@ -1836,7 +1839,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1919,7 +1922,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2033,6 +2035,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1767525</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>94267</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>75886</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>151709</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11F3920C-B4AC-423E-B1D8-3F195546FB82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7486453" y="11924906"/>
+          <a:ext cx="10421804" cy="2791215"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3599,8 +3650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2890B0-5FA3-41ED-B4D7-53BAB51DAAB5}">
   <dimension ref="A2:P160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="97" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="F146" sqref="F146"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="97" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3621,7 +3672,7 @@
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G2">
         <v>100</v>
@@ -3632,12 +3683,12 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E4" t="s">
         <v>74</v>
@@ -3649,41 +3700,41 @@
         <v>76</v>
       </c>
       <c r="H4" t="s">
-        <v>231</v>
-      </c>
-      <c r="I4" s="162" t="s">
-        <v>385</v>
+        <v>230</v>
+      </c>
+      <c r="I4" s="161" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F5" t="s">
+        <v>225</v>
+      </c>
+      <c r="G5" t="s">
         <v>226</v>
       </c>
-      <c r="G5" t="s">
-        <v>227</v>
-      </c>
       <c r="I5" t="s">
+        <v>223</v>
+      </c>
+      <c r="J5" t="s">
         <v>224</v>
       </c>
-      <c r="J5" t="s">
-        <v>225</v>
-      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C6" s="172" t="s">
-        <v>387</v>
-      </c>
-      <c r="D6" s="172"/>
-      <c r="E6" s="172">
+      <c r="C6" s="171" t="s">
+        <v>385</v>
+      </c>
+      <c r="D6" s="171"/>
+      <c r="E6" s="171">
         <v>1</v>
       </c>
-      <c r="F6" s="172">
+      <c r="F6" s="171">
         <v>0.66</v>
       </c>
-      <c r="G6" s="172">
+      <c r="G6" s="171">
         <v>1.33</v>
       </c>
     </row>
@@ -3711,13 +3762,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G8">
         <v>240</v>
@@ -3727,29 +3778,29 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="152"/>
-      <c r="C9" s="152" t="s">
-        <v>269</v>
-      </c>
-      <c r="D9" s="152"/>
-      <c r="E9" s="152">
+      <c r="B9" s="151"/>
+      <c r="C9" s="151" t="s">
+        <v>268</v>
+      </c>
+      <c r="D9" s="151"/>
+      <c r="E9" s="151">
         <v>1</v>
       </c>
-      <c r="F9" s="152">
+      <c r="F9" s="151">
         <v>0.66</v>
       </c>
-      <c r="G9" s="152">
+      <c r="G9" s="151">
         <v>0.66</v>
       </c>
-      <c r="H9" s="150"/>
-      <c r="I9" s="152">
+      <c r="H9" s="149"/>
+      <c r="I9" s="151">
         <f>SUM(I7/2)</f>
         <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E10" s="20">
         <v>12</v>
@@ -3767,7 +3818,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G11">
         <v>1918</v>
@@ -3775,7 +3826,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G12">
         <v>1.0429999999999999</v>
@@ -3783,7 +3834,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -3800,10 +3851,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="66" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C14" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E14">
         <v>12</v>
@@ -3820,10 +3871,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="66" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C16" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E16">
         <v>3.8E-3</v>
@@ -3838,13 +3889,13 @@
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="66"/>
       <c r="C17" t="s">
-        <v>393</v>
-      </c>
-      <c r="E17" s="175" t="s">
-        <v>392</v>
-      </c>
-      <c r="F17" s="175" t="s">
-        <v>392</v>
+        <v>391</v>
+      </c>
+      <c r="E17" s="174" t="s">
+        <v>390</v>
+      </c>
+      <c r="F17" s="174" t="s">
+        <v>390</v>
       </c>
       <c r="G17">
         <v>120</v>
@@ -3853,7 +3904,7 @@
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="66"/>
       <c r="C18" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -3868,7 +3919,7 @@
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="66"/>
       <c r="C19" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E19">
         <v>0.16600000000000001</v>
@@ -3893,14 +3944,14 @@
       <c r="G20">
         <v>1.125</v>
       </c>
-      <c r="I20" s="172" t="s">
-        <v>388</v>
+      <c r="I20" s="171" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B21" s="19"/>
       <c r="C21" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="19">
@@ -3929,58 +3980,58 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B23" s="21">
         <v>1</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="68" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F23" s="21"/>
       <c r="H23" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B24" s="21">
         <v>2</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="68" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F24" s="21"/>
       <c r="G24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H24" s="36" t="s">
         <v>77</v>
       </c>
       <c r="I24" s="36"/>
       <c r="J24" s="36" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K24" s="36"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B25" s="21">
         <v>3</v>
@@ -3990,7 +4041,7 @@
       </c>
       <c r="D25" s="21"/>
       <c r="E25" s="68" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F25" s="21"/>
       <c r="G25" s="4" t="s">
@@ -4006,7 +4057,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B26" s="21">
         <v>4</v>
@@ -4020,7 +4071,7 @@
       </c>
       <c r="F26" s="21"/>
       <c r="G26" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H26" s="17">
         <f>E33</f>
@@ -4029,8 +4080,8 @@
       <c r="K26" s="8"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="112" t="s">
-        <v>308</v>
+      <c r="A27" s="111" t="s">
+        <v>307</v>
       </c>
       <c r="B27" s="21">
         <v>5</v>
@@ -4042,7 +4093,7 @@
       <c r="E27" s="68"/>
       <c r="F27" s="21"/>
       <c r="G27" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H27" s="20">
         <f>E35</f>
@@ -4052,7 +4103,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B28" s="21">
         <v>6</v>
@@ -4061,19 +4112,19 @@
         <v>162</v>
       </c>
       <c r="D28" s="21"/>
-      <c r="E28" s="141">
+      <c r="E28" s="140">
         <v>18</v>
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H28">
         <f>E36</f>
         <v>2000</v>
       </c>
       <c r="I28" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J28">
         <v>200</v>
@@ -4085,7 +4136,7 @@
     </row>
     <row r="29" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B29" s="21">
         <v>7</v>
@@ -4094,18 +4145,18 @@
         <v>163</v>
       </c>
       <c r="D29" s="21"/>
-      <c r="E29" s="141">
+      <c r="E29" s="140">
         <v>0</v>
       </c>
       <c r="F29" s="21"/>
       <c r="G29" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H29" s="10">
         <v>1500</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J29" s="10">
         <v>150</v>
@@ -4116,7 +4167,7 @@
     </row>
     <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B30" s="21">
         <v>8</v>
@@ -4130,33 +4181,33 @@
       </c>
       <c r="F30" s="21"/>
       <c r="I30" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="66" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B31" s="21">
         <v>9</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D31" s="21"/>
-      <c r="E31" s="142">
+      <c r="E31" s="141">
         <f>SUM(E29-E30)</f>
         <v>2</v>
       </c>
       <c r="F31" s="21"/>
       <c r="G31" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H31" s="34" t="s">
         <v>26</v>
       </c>
       <c r="I31" s="34" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J31" s="34" t="s">
         <v>175</v>
@@ -4168,7 +4219,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="66" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B32" s="21">
         <v>10</v>
@@ -4177,7 +4228,7 @@
         <v>165</v>
       </c>
       <c r="D32" s="21"/>
-      <c r="E32" s="142">
+      <c r="E32" s="141">
         <f>SUM(E28+E31)</f>
         <v>20</v>
       </c>
@@ -4186,13 +4237,13 @@
         <v>4</v>
       </c>
       <c r="H32" t="s">
+        <v>272</v>
+      </c>
+      <c r="I32" t="s">
         <v>273</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>274</v>
-      </c>
-      <c r="J32" t="s">
-        <v>275</v>
       </c>
       <c r="K32">
         <f>H28</f>
@@ -4203,17 +4254,17 @@
       <c r="N32" s="17"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="113" t="s">
-        <v>309</v>
+      <c r="A33" s="112" t="s">
+        <v>308</v>
       </c>
       <c r="B33" s="21">
         <v>11</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D33" s="21"/>
-      <c r="E33" s="142">
+      <c r="E33" s="141">
         <v>100</v>
       </c>
       <c r="F33" s="21"/>
@@ -4221,13 +4272,13 @@
         <v>4</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I33" t="s">
+        <v>275</v>
+      </c>
+      <c r="J33" t="s">
         <v>276</v>
-      </c>
-      <c r="J33" t="s">
-        <v>277</v>
       </c>
       <c r="K33">
         <v>500</v>
@@ -4236,7 +4287,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B34" s="21">
         <v>12</v>
@@ -4245,7 +4296,7 @@
         <v>166</v>
       </c>
       <c r="D34" s="21"/>
-      <c r="E34" s="141">
+      <c r="E34" s="140">
         <v>0.66</v>
       </c>
       <c r="F34" s="21"/>
@@ -4253,13 +4304,13 @@
         <v>4</v>
       </c>
       <c r="H34" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I34" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K34">
         <v>6.875</v>
@@ -4268,7 +4319,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="66" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B35" s="21">
         <v>13</v>
@@ -4277,7 +4328,7 @@
         <v>167</v>
       </c>
       <c r="D35" s="21"/>
-      <c r="E35" s="143">
+      <c r="E35" s="142">
         <f>E36*E34</f>
         <v>1320</v>
       </c>
@@ -4286,13 +4337,13 @@
         <v>4</v>
       </c>
       <c r="H35" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L35" s="8"/>
     </row>
     <row r="36" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="66" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B36" s="21">
         <v>14</v>
@@ -4301,14 +4352,14 @@
         <v>168</v>
       </c>
       <c r="D36" s="21"/>
-      <c r="E36" s="142">
+      <c r="E36" s="141">
         <f>SUM(E32*E33)</f>
         <v>2000</v>
       </c>
       <c r="F36" s="21"/>
       <c r="G36" s="9"/>
       <c r="H36" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
@@ -4317,7 +4368,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="66" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B37" s="21">
         <v>15</v>
@@ -4326,17 +4377,17 @@
         <v>170</v>
       </c>
       <c r="D37" s="21"/>
-      <c r="E37" s="142">
+      <c r="E37" s="141">
         <f>SUM(E36*J7)</f>
         <v>2250</v>
       </c>
       <c r="F37" s="21"/>
-      <c r="G37" s="140"/>
+      <c r="G37" s="139"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B38" s="57"/>
       <c r="C38" s="57" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D38" s="57"/>
       <c r="E38" s="21"/>
@@ -4359,23 +4410,23 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B42" s="58">
         <v>16</v>
       </c>
       <c r="C42" s="59" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D42" s="59"/>
       <c r="E42" s="59" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F42" s="60"/>
     </row>
     <row r="43" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B43" s="61">
         <v>17</v>
@@ -4384,14 +4435,14 @@
         <v>172</v>
       </c>
       <c r="D43" s="22"/>
-      <c r="E43" s="171" t="s">
-        <v>301</v>
+      <c r="E43" s="170" t="s">
+        <v>300</v>
       </c>
       <c r="F43" s="62"/>
     </row>
     <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B44" s="61">
         <v>17</v>
@@ -4400,18 +4451,18 @@
         <v>173</v>
       </c>
       <c r="D44" s="22"/>
-      <c r="E44" s="144">
+      <c r="E44" s="143">
         <v>2</v>
       </c>
       <c r="F44" s="62"/>
       <c r="G44" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H44" s="34" t="s">
         <v>26</v>
       </c>
       <c r="I44" s="34" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J44" s="34" t="s">
         <v>175</v>
@@ -4421,8 +4472,8 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="114" t="s">
-        <v>320</v>
+      <c r="A45" s="113" t="s">
+        <v>319</v>
       </c>
       <c r="B45" s="61">
         <v>18</v>
@@ -4431,7 +4482,7 @@
         <v>174</v>
       </c>
       <c r="D45" s="22"/>
-      <c r="E45" s="144">
+      <c r="E45" s="143">
         <f>SUM(E33/H8)</f>
         <v>5</v>
       </c>
@@ -4440,13 +4491,13 @@
         <v>4</v>
       </c>
       <c r="H45" t="s">
+        <v>272</v>
+      </c>
+      <c r="I45" t="s">
         <v>273</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>274</v>
-      </c>
-      <c r="J45" t="s">
-        <v>275</v>
       </c>
       <c r="K45" s="8">
         <v>100</v>
@@ -4454,13 +4505,13 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B46" s="61">
         <v>19</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D46" s="22"/>
       <c r="E46" s="22">
@@ -4471,13 +4522,13 @@
         <v>4</v>
       </c>
       <c r="H46" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I46" t="s">
+        <v>275</v>
+      </c>
+      <c r="J46" t="s">
         <v>276</v>
-      </c>
-      <c r="J46" t="s">
-        <v>277</v>
       </c>
       <c r="K46" s="8">
         <v>50</v>
@@ -4485,14 +4536,14 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="66" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B47" s="61"/>
       <c r="C47" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D47" s="22"/>
-      <c r="E47" s="144">
+      <c r="E47" s="143">
         <f>SUM(H8+E46)</f>
         <v>22</v>
       </c>
@@ -4501,13 +4552,13 @@
         <v>4</v>
       </c>
       <c r="H47" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I47" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J47" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K47" s="8">
         <v>6.875</v>
@@ -4515,40 +4566,40 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="66" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B48" s="61"/>
       <c r="C48" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D48" s="22"/>
-      <c r="E48" s="147">
+      <c r="E48" s="146">
         <f>SUM(E44*E45*E47)</f>
         <v>220</v>
       </c>
       <c r="F48" s="62"/>
       <c r="H48" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K48" s="8"/>
     </row>
     <row r="49" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="66" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B49" s="61"/>
-      <c r="C49" s="115" t="s">
-        <v>253</v>
-      </c>
-      <c r="D49" s="115"/>
-      <c r="E49" s="148">
+      <c r="C49" s="114" t="s">
+        <v>252</v>
+      </c>
+      <c r="D49" s="114"/>
+      <c r="E49" s="147">
         <f>SUM(E48/H8)</f>
         <v>11</v>
       </c>
       <c r="F49" s="62"/>
       <c r="G49" s="10"/>
       <c r="H49" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
@@ -4556,81 +4607,81 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="66"/>
-      <c r="B50" s="116">
+      <c r="B50" s="115">
         <v>20</v>
       </c>
-      <c r="C50" s="117" t="s">
+      <c r="C50" s="116" t="s">
         <v>177</v>
       </c>
-      <c r="D50" s="117"/>
-      <c r="E50" s="117" t="s">
-        <v>362</v>
-      </c>
-      <c r="F50" s="118"/>
+      <c r="D50" s="116"/>
+      <c r="E50" s="116" t="s">
+        <v>360</v>
+      </c>
+      <c r="F50" s="117"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>317</v>
-      </c>
-      <c r="B51" s="119"/>
-      <c r="C51" s="115" t="s">
+        <v>316</v>
+      </c>
+      <c r="B51" s="118"/>
+      <c r="C51" s="114" t="s">
         <v>85</v>
       </c>
-      <c r="D51" s="115"/>
-      <c r="E51" s="115" t="s">
+      <c r="D51" s="114"/>
+      <c r="E51" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="F51" s="120"/>
+      <c r="F51" s="119"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>318</v>
-      </c>
-      <c r="B52" s="119">
+        <v>317</v>
+      </c>
+      <c r="B52" s="118">
         <v>21</v>
       </c>
-      <c r="C52" s="115" t="s">
+      <c r="C52" s="114" t="s">
         <v>176</v>
       </c>
-      <c r="D52" s="115"/>
-      <c r="E52" s="115">
+      <c r="D52" s="114"/>
+      <c r="E52" s="114">
         <v>2</v>
       </c>
-      <c r="F52" s="120"/>
+      <c r="F52" s="119"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="66" t="s">
-        <v>309</v>
-      </c>
-      <c r="B53" s="119">
+        <v>308</v>
+      </c>
+      <c r="B53" s="118">
         <v>22</v>
       </c>
-      <c r="C53" s="115" t="s">
+      <c r="C53" s="114" t="s">
         <v>80</v>
       </c>
-      <c r="D53" s="115"/>
-      <c r="E53" s="145">
+      <c r="D53" s="114"/>
+      <c r="E53" s="144">
         <f>SUM(E33/E52)</f>
         <v>50</v>
       </c>
-      <c r="F53" s="120"/>
+      <c r="F53" s="119"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="66" t="s">
-        <v>309</v>
-      </c>
-      <c r="B54" s="121">
+        <v>308</v>
+      </c>
+      <c r="B54" s="120">
         <v>23</v>
       </c>
-      <c r="C54" s="122" t="s">
+      <c r="C54" s="121" t="s">
         <v>174</v>
       </c>
-      <c r="D54" s="122"/>
-      <c r="E54" s="149">
+      <c r="D54" s="121"/>
+      <c r="E54" s="148">
         <f>SUM(E32*E53/H8)</f>
         <v>50</v>
       </c>
-      <c r="F54" s="123"/>
+      <c r="F54" s="122"/>
       <c r="J54" s="20"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -4654,7 +4705,7 @@
       </c>
       <c r="D56" s="22"/>
       <c r="E56" s="67" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F56" s="22"/>
       <c r="J56" s="20"/>
@@ -4670,8 +4721,8 @@
         <v>0.75</v>
       </c>
       <c r="F57" s="22"/>
-      <c r="G57" s="146" t="s">
-        <v>383</v>
+      <c r="G57" s="145" t="s">
+        <v>381</v>
       </c>
       <c r="J57" s="20"/>
     </row>
@@ -4679,10 +4730,10 @@
       <c r="A58" s="66"/>
       <c r="B58" s="22"/>
       <c r="C58" s="22" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D58" s="22"/>
-      <c r="E58" s="150">
+      <c r="E58" s="149">
         <f>SUM(E36*E57)</f>
         <v>1500</v>
       </c>
@@ -4696,7 +4747,7 @@
         <v>174</v>
       </c>
       <c r="D59" s="22"/>
-      <c r="E59" s="150">
+      <c r="E59" s="149">
         <f>SUM(E58/G16)</f>
         <v>3</v>
       </c>
@@ -4704,8 +4755,8 @@
       <c r="J59" s="20"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="80" t="s">
-        <v>314</v>
+      <c r="A60" s="79" t="s">
+        <v>313</v>
       </c>
       <c r="B60" s="58">
         <v>24</v>
@@ -4718,13 +4769,13 @@
         <v>173</v>
       </c>
       <c r="F60" s="60"/>
-      <c r="G60" s="138" t="s">
-        <v>382</v>
+      <c r="G60" s="137" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="80" t="s">
-        <v>314</v>
+      <c r="A61" s="79" t="s">
+        <v>313</v>
       </c>
       <c r="B61" s="61"/>
       <c r="C61" s="22" t="s">
@@ -4732,10 +4783,10 @@
       </c>
       <c r="D61" s="22"/>
       <c r="E61" s="22" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F61" s="62"/>
-      <c r="G61" s="138">
+      <c r="G61" s="137">
         <v>2</v>
       </c>
       <c r="H61">
@@ -4747,7 +4798,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B62" s="61">
         <v>25</v>
@@ -4756,12 +4807,12 @@
       <c r="D62" s="22"/>
       <c r="E62" s="22"/>
       <c r="F62" s="62"/>
-      <c r="G62" s="138"/>
+      <c r="G62" s="137"/>
       <c r="H62" s="17"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B63" s="61">
         <v>26</v>
@@ -4774,13 +4825,13 @@
         <v>3</v>
       </c>
       <c r="F63" s="62"/>
-      <c r="G63" s="138" t="s">
-        <v>333</v>
+      <c r="G63" s="137" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="66" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B64" s="63">
         <v>27</v>
@@ -4789,12 +4840,12 @@
         <v>174</v>
       </c>
       <c r="D64" s="64"/>
-      <c r="E64" s="151">
+      <c r="E64" s="150">
         <f>E63</f>
         <v>3</v>
       </c>
       <c r="F64" s="65"/>
-      <c r="G64" s="138"/>
+      <c r="G64" s="137"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C65" s="17" t="s">
@@ -4803,7 +4854,7 @@
     </row>
     <row r="66" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B66" s="69">
         <v>28</v>
@@ -4813,13 +4864,13 @@
       </c>
       <c r="D66" s="71"/>
       <c r="E66" s="71" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F66" s="72"/>
     </row>
     <row r="67" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B67" s="73">
         <v>29</v>
@@ -4833,13 +4884,13 @@
       </c>
       <c r="F67" s="74"/>
       <c r="G67" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H67" s="34" t="s">
         <v>26</v>
       </c>
       <c r="I67" s="34" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J67" s="34" t="s">
         <v>175</v>
@@ -4850,16 +4901,16 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B68" s="73">
         <v>30</v>
       </c>
       <c r="C68" s="23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D68" s="23"/>
-      <c r="E68" s="152">
+      <c r="E68" s="151">
         <f>SUM(E33*E67)</f>
         <v>200</v>
       </c>
@@ -4868,13 +4919,13 @@
         <v>4</v>
       </c>
       <c r="H68" t="s">
+        <v>272</v>
+      </c>
+      <c r="I68" t="s">
         <v>273</v>
       </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
         <v>274</v>
-      </c>
-      <c r="J68" t="s">
-        <v>275</v>
       </c>
       <c r="K68" s="8">
         <v>2475</v>
@@ -4882,7 +4933,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="66" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B69" s="75">
         <v>31</v>
@@ -4891,7 +4942,7 @@
         <v>174</v>
       </c>
       <c r="D69" s="76"/>
-      <c r="E69" s="149">
+      <c r="E69" s="148">
         <f>SUM(E68/H8)</f>
         <v>10</v>
       </c>
@@ -4900,13 +4951,13 @@
         <v>4</v>
       </c>
       <c r="H69" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I69" t="s">
+        <v>275</v>
+      </c>
+      <c r="J69" t="s">
         <v>276</v>
-      </c>
-      <c r="J69" t="s">
-        <v>277</v>
       </c>
       <c r="K69" s="8">
         <v>1650</v>
@@ -4914,7 +4965,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B70" s="69">
         <v>32</v>
@@ -4924,20 +4975,20 @@
       </c>
       <c r="D70" s="71"/>
       <c r="E70" s="71" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F70" s="72"/>
       <c r="G70">
         <v>4</v>
       </c>
       <c r="H70" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I70" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J70" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K70" s="8">
         <v>6.875</v>
@@ -4945,7 +4996,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B71" s="73">
         <v>33</v>
@@ -4959,7 +5010,7 @@
       </c>
       <c r="F71" s="74"/>
       <c r="H71" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K71" s="8"/>
     </row>
@@ -4975,7 +5026,7 @@
       <c r="F72" s="74"/>
       <c r="G72" s="10"/>
       <c r="H72" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I72" s="10"/>
       <c r="J72" s="10"/>
@@ -4983,13 +5034,13 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B73" s="73">
         <v>35</v>
       </c>
       <c r="C73" s="23" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D73" s="23"/>
       <c r="E73" s="23">
@@ -4999,7 +5050,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="66" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B74" s="75">
         <v>36</v>
@@ -5008,15 +5059,15 @@
         <v>183</v>
       </c>
       <c r="D74" s="76"/>
-      <c r="E74" s="149">
+      <c r="E74" s="148">
         <f>SUM(E33/E71*E73)</f>
         <v>50</v>
       </c>
-      <c r="F74" s="139"/>
+      <c r="F74" s="138"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B75" s="69">
         <v>37</v>
@@ -5026,13 +5077,13 @@
       </c>
       <c r="D75" s="71"/>
       <c r="E75" s="72" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F75" s="23"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B76" s="73">
         <v>38</v>
@@ -5048,16 +5099,16 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="66" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B77" s="73">
         <v>39</v>
       </c>
       <c r="C77" s="23" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D77" s="23"/>
-      <c r="E77" s="88">
+      <c r="E77" s="87">
         <f>SUM(E33/H8)</f>
         <v>5</v>
       </c>
@@ -5065,7 +5116,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="66" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B78" s="75">
         <v>40</v>
@@ -5074,15 +5125,17 @@
         <v>174</v>
       </c>
       <c r="D78" s="76"/>
-      <c r="E78" s="78">
+      <c r="E78" s="167">
         <f>SUM(E77*E76)</f>
         <v>10</v>
       </c>
-      <c r="F78" s="23"/>
+      <c r="F78" s="137" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B79" s="69">
         <v>41</v>
@@ -5091,29 +5144,29 @@
         <v>79</v>
       </c>
       <c r="D79" s="71"/>
-      <c r="E79" s="153">
+      <c r="E79" s="152">
         <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="66" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B80" s="73">
         <v>42</v>
       </c>
       <c r="C80" s="23" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D80" s="23"/>
-      <c r="E80" s="154">
+      <c r="E80" s="153">
         <f>SUM(E33/H8)</f>
         <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" s="66" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B81" s="75">
         <v>43</v>
@@ -5122,7 +5175,7 @@
         <v>174</v>
       </c>
       <c r="D81" s="76"/>
-      <c r="E81" s="155">
+      <c r="E81" s="154">
         <f>SUM(E80*E79)</f>
         <v>10</v>
       </c>
@@ -5132,12 +5185,12 @@
         <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G83" s="24"/>
       <c r="H83" s="24"/>
       <c r="I83" s="37" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J83" s="24"/>
       <c r="K83" s="24"/>
@@ -5148,7 +5201,7 @@
         <v>56</v>
       </c>
       <c r="G84" s="38" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="40"/>
@@ -5158,7 +5211,7 @@
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B85" s="4">
         <v>44</v>
@@ -5167,27 +5220,27 @@
         <v>186</v>
       </c>
       <c r="D85" s="39"/>
-      <c r="E85" s="156" t="s">
-        <v>233</v>
+      <c r="E85" s="155" t="s">
+        <v>232</v>
       </c>
       <c r="G85" s="38" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H85" s="39" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I85" s="39"/>
-      <c r="J85" s="104" t="s">
-        <v>241</v>
-      </c>
-      <c r="K85" s="104" t="s">
+      <c r="J85" s="103" t="s">
+        <v>240</v>
+      </c>
+      <c r="K85" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="L85" s="105"/>
+      <c r="L85" s="104"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B86" s="41">
         <v>45</v>
@@ -5196,51 +5249,51 @@
         <v>187</v>
       </c>
       <c r="D86" s="24"/>
-      <c r="E86" s="157">
+      <c r="E86" s="156">
         <v>2</v>
       </c>
-      <c r="G86" s="108" t="s">
+      <c r="G86" s="107" t="s">
+        <v>244</v>
+      </c>
+      <c r="H86" s="108" t="s">
         <v>245</v>
       </c>
-      <c r="H86" s="109" t="s">
-        <v>246</v>
-      </c>
-      <c r="I86" s="109"/>
-      <c r="J86" s="103" t="s">
-        <v>243</v>
-      </c>
-      <c r="K86" s="103">
+      <c r="I86" s="108"/>
+      <c r="J86" s="102" t="s">
+        <v>242</v>
+      </c>
+      <c r="K86" s="102">
         <v>2</v>
       </c>
-      <c r="L86" s="103" t="s">
-        <v>334</v>
+      <c r="L86" s="102" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" s="66" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B87" s="41"/>
       <c r="C87" s="24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D87" s="24"/>
-      <c r="E87" s="176">
+      <c r="E87" s="175">
         <f>SUM(E86/F9)</f>
         <v>3.0303030303030303</v>
       </c>
-      <c r="F87" s="162" t="s">
-        <v>384</v>
-      </c>
-      <c r="G87" s="110" t="s">
-        <v>358</v>
-      </c>
-      <c r="H87" s="111" t="s">
-        <v>247</v>
-      </c>
-      <c r="I87" s="111"/>
+      <c r="F87" s="161" t="s">
+        <v>382</v>
+      </c>
+      <c r="G87" s="109" t="s">
+        <v>356</v>
+      </c>
+      <c r="H87" s="110" t="s">
+        <v>246</v>
+      </c>
+      <c r="I87" s="110"/>
       <c r="J87" s="42" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K87" s="42">
         <v>1.33</v>
@@ -5249,7 +5302,7 @@
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B88" s="41">
         <v>46</v>
@@ -5258,32 +5311,32 @@
         <v>188</v>
       </c>
       <c r="D88" s="24"/>
-      <c r="E88" s="157">
+      <c r="E88" s="156">
         <v>10</v>
       </c>
       <c r="F88">
         <v>3</v>
       </c>
-      <c r="G88" s="108" t="s">
-        <v>258</v>
-      </c>
-      <c r="H88" s="109" t="s">
-        <v>262</v>
-      </c>
-      <c r="I88" s="109"/>
-      <c r="J88" s="103" t="s">
-        <v>359</v>
-      </c>
-      <c r="K88" s="103">
+      <c r="G88" s="107" t="s">
+        <v>257</v>
+      </c>
+      <c r="H88" s="108" t="s">
+        <v>261</v>
+      </c>
+      <c r="I88" s="108"/>
+      <c r="J88" s="102" t="s">
+        <v>357</v>
+      </c>
+      <c r="K88" s="102">
         <v>1.33</v>
       </c>
-      <c r="L88" s="103" t="s">
-        <v>334</v>
+      <c r="L88" s="102" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A89" s="79" t="s">
-        <v>319</v>
+      <c r="A89" s="78" t="s">
+        <v>318</v>
       </c>
       <c r="B89" s="24">
         <v>47</v>
@@ -5292,26 +5345,26 @@
         <v>189</v>
       </c>
       <c r="D89" s="24"/>
-      <c r="E89" s="161">
+      <c r="E89" s="160">
         <f>SUM(E88+E86)</f>
         <v>12</v>
       </c>
       <c r="G89" s="41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H89" s="24"/>
       <c r="I89" s="24"/>
-      <c r="J89" s="106">
+      <c r="J89" s="105">
         <v>14</v>
       </c>
-      <c r="K89" s="106">
+      <c r="K89" s="105">
         <v>1.33</v>
       </c>
-      <c r="L89" s="107"/>
+      <c r="L89" s="106"/>
     </row>
     <row r="90" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B90" s="41">
         <v>48</v>
@@ -5321,7 +5374,7 @@
       </c>
       <c r="D90" s="24"/>
       <c r="E90" s="50" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G90" s="41"/>
       <c r="H90" s="24"/>
@@ -5334,7 +5387,7 @@
     </row>
     <row r="91" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B91" s="41">
         <v>49</v>
@@ -5353,7 +5406,7 @@
     </row>
     <row r="92" spans="1:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A92" s="66" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B92" s="41">
         <v>50</v>
@@ -5362,86 +5415,86 @@
         <v>192</v>
       </c>
       <c r="D92" s="24"/>
-      <c r="E92" s="161">
+      <c r="E92" s="160">
         <f>SUM(E33*E86/I21)</f>
         <v>225</v>
       </c>
       <c r="G92" s="24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H92" s="24"/>
       <c r="I92" s="24"/>
       <c r="J92" s="37" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K92" s="24"/>
       <c r="L92" s="24"/>
       <c r="M92" s="24"/>
       <c r="N92" s="24"/>
       <c r="O92" s="24" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P92" s="24"/>
     </row>
     <row r="93" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="81">
+      <c r="B93" s="80">
         <v>51</v>
       </c>
-      <c r="C93" s="82" t="s">
+      <c r="C93" s="81" t="s">
         <v>193</v>
       </c>
-      <c r="D93" s="82"/>
-      <c r="E93" s="153" t="s">
-        <v>369</v>
+      <c r="D93" s="81"/>
+      <c r="E93" s="152" t="s">
+        <v>367</v>
       </c>
       <c r="G93" s="48" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H93" s="32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I93" s="32"/>
       <c r="J93" s="32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K93" s="32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L93" s="32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M93" s="49" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N93" s="32" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="O93" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="P93" s="49" t="s">
         <v>267</v>
-      </c>
-      <c r="P93" s="49" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>232</v>
-      </c>
-      <c r="B94" s="84">
+        <v>231</v>
+      </c>
+      <c r="B94" s="83">
         <v>52</v>
       </c>
       <c r="C94" s="24" t="s">
         <v>194</v>
       </c>
       <c r="D94" s="24"/>
-      <c r="E94" s="163" t="s">
-        <v>370</v>
+      <c r="E94" s="162" t="s">
+        <v>368</v>
       </c>
       <c r="G94" s="41" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H94" s="24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I94" s="24"/>
       <c r="J94" s="24">
@@ -5473,20 +5526,20 @@
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>307</v>
-      </c>
-      <c r="B95" s="84">
+        <v>306</v>
+      </c>
+      <c r="B95" s="83">
         <v>53</v>
       </c>
       <c r="C95" s="24" t="s">
         <v>195</v>
       </c>
       <c r="D95" s="24"/>
-      <c r="E95" s="85">
+      <c r="E95" s="84">
         <v>2</v>
       </c>
       <c r="G95" s="41" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H95" s="24"/>
       <c r="I95" s="24"/>
@@ -5502,7 +5555,7 @@
       <c r="M95" s="24">
         <v>4</v>
       </c>
-      <c r="N95" s="173"/>
+      <c r="N95" s="172"/>
       <c r="O95" s="24">
         <v>2.5</v>
       </c>
@@ -5513,21 +5566,21 @@
     </row>
     <row r="96" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="66" t="s">
-        <v>319</v>
-      </c>
-      <c r="B96" s="84">
+        <v>318</v>
+      </c>
+      <c r="B96" s="83">
         <v>54</v>
       </c>
       <c r="C96" s="24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D96" s="24"/>
-      <c r="E96" s="154">
+      <c r="E96" s="153">
         <f>SUM(H8+E95)</f>
         <v>22</v>
       </c>
       <c r="G96" s="41" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H96" s="24"/>
       <c r="I96" s="24"/>
@@ -5541,16 +5594,16 @@
     </row>
     <row r="97" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="66" t="s">
-        <v>319</v>
-      </c>
-      <c r="B97" s="84">
+        <v>318</v>
+      </c>
+      <c r="B97" s="83">
         <v>55</v>
       </c>
       <c r="C97" s="24" t="s">
         <v>196</v>
       </c>
       <c r="D97" s="24"/>
-      <c r="E97" s="154">
+      <c r="E97" s="153">
         <f>SUM(E33/H8*E96)</f>
         <v>110</v>
       </c>
@@ -5590,20 +5643,20 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>307</v>
-      </c>
-      <c r="B98" s="84">
+        <v>306</v>
+      </c>
+      <c r="B98" s="83">
         <v>56</v>
       </c>
       <c r="C98" s="24" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D98" s="24"/>
-      <c r="E98" s="85">
+      <c r="E98" s="84">
         <v>2</v>
       </c>
       <c r="G98" s="53" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H98" s="24"/>
       <c r="I98" s="24"/>
@@ -5617,16 +5670,16 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" s="66" t="s">
-        <v>319</v>
-      </c>
-      <c r="B99" s="84">
+        <v>318</v>
+      </c>
+      <c r="B99" s="83">
         <v>57</v>
       </c>
       <c r="C99" s="24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D99" s="24"/>
-      <c r="E99" s="158">
+      <c r="E99" s="157">
         <f>SUM(E97*E98*E87)</f>
         <v>666.66666666666663</v>
       </c>
@@ -5636,16 +5689,16 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" s="66" t="s">
-        <v>326</v>
-      </c>
-      <c r="B100" s="84">
+        <v>325</v>
+      </c>
+      <c r="B100" s="83">
         <v>58</v>
       </c>
       <c r="C100" s="24" t="s">
         <v>198</v>
       </c>
       <c r="D100" s="24"/>
-      <c r="E100" s="158">
+      <c r="E100" s="157">
         <f>SUM(E99/G11)</f>
         <v>0.34758428919012857</v>
       </c>
@@ -5653,40 +5706,40 @@
         <v>0.35</v>
       </c>
       <c r="L100" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M100">
         <v>200</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A101" s="80" t="s">
-        <v>232</v>
-      </c>
-      <c r="B101" s="81"/>
-      <c r="C101" s="82" t="s">
-        <v>325</v>
-      </c>
-      <c r="D101" s="82"/>
-      <c r="E101" s="83" t="s">
-        <v>371</v>
+      <c r="A101" s="79" t="s">
+        <v>231</v>
+      </c>
+      <c r="B101" s="80"/>
+      <c r="C101" s="81" t="s">
+        <v>324</v>
+      </c>
+      <c r="D101" s="81"/>
+      <c r="E101" s="82" t="s">
+        <v>369</v>
       </c>
       <c r="N101" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="102" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="66" t="s">
-        <v>319</v>
-      </c>
-      <c r="B102" s="84">
+        <v>318</v>
+      </c>
+      <c r="B102" s="83">
         <v>59</v>
       </c>
       <c r="C102" s="24" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D102" s="24"/>
-      <c r="E102" s="158">
+      <c r="E102" s="157">
         <f>SUM(E33*E86)</f>
         <v>200</v>
       </c>
@@ -5694,10 +5747,10 @@
         <v>1</v>
       </c>
       <c r="G102" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L102" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M102">
         <v>150</v>
@@ -5705,14 +5758,14 @@
     </row>
     <row r="103" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="66" t="s">
-        <v>319</v>
-      </c>
-      <c r="B103" s="84"/>
+        <v>318</v>
+      </c>
+      <c r="B103" s="83"/>
       <c r="C103" s="24" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D103" s="24"/>
-      <c r="E103" s="159">
+      <c r="E103" s="158">
         <f>SUM(E86*E118)*0.66</f>
         <v>68.64</v>
       </c>
@@ -5720,21 +5773,21 @@
         <v>2</v>
       </c>
       <c r="G103" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="104" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="66" t="s">
-        <v>327</v>
-      </c>
-      <c r="B104" s="84">
+        <v>326</v>
+      </c>
+      <c r="B104" s="83">
         <v>60</v>
       </c>
       <c r="C104" s="24" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D104" s="24"/>
-      <c r="E104" s="174">
+      <c r="E104" s="173">
         <f>SUM(E102-E103)</f>
         <v>131.36000000000001</v>
       </c>
@@ -5742,44 +5795,44 @@
         <v>3</v>
       </c>
       <c r="G104" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="105" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="80" t="s">
-        <v>307</v>
-      </c>
-      <c r="B105" s="84"/>
+      <c r="A105" s="79" t="s">
+        <v>306</v>
+      </c>
+      <c r="B105" s="83"/>
       <c r="C105" s="24" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D105" s="24"/>
-      <c r="E105" s="85">
+      <c r="E105" s="84">
         <v>100</v>
       </c>
       <c r="F105" s="33"/>
     </row>
     <row r="106" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="66" t="s">
-        <v>319</v>
-      </c>
-      <c r="B106" s="86"/>
-      <c r="C106" s="87" t="s">
-        <v>352</v>
-      </c>
-      <c r="D106" s="87"/>
-      <c r="E106" s="160">
+        <v>318</v>
+      </c>
+      <c r="B106" s="85"/>
+      <c r="C106" s="86" t="s">
+        <v>396</v>
+      </c>
+      <c r="D106" s="86"/>
+      <c r="E106" s="159">
         <f>SUM(E104/E105)</f>
         <v>1.3136000000000001</v>
       </c>
       <c r="G106" s="48" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H106" s="54" t="s">
         <v>26</v>
       </c>
       <c r="I106" s="54" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J106" s="54" t="s">
         <v>175</v>
@@ -5790,7 +5843,7 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107" s="66" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B107" s="24"/>
       <c r="C107" s="24"/>
@@ -5800,13 +5853,13 @@
         <v>4</v>
       </c>
       <c r="H107" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="I107" s="24" t="s">
         <v>273</v>
       </c>
-      <c r="I107" s="24" t="s">
+      <c r="J107" s="24" t="s">
         <v>274</v>
-      </c>
-      <c r="J107" s="24" t="s">
-        <v>275</v>
       </c>
       <c r="K107" s="50">
         <f>E120</f>
@@ -5815,7 +5868,7 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108" s="66" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B108" s="24"/>
       <c r="C108" s="24"/>
@@ -5825,13 +5878,13 @@
         <v>4</v>
       </c>
       <c r="H108" s="28" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I108" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="J108" s="24" t="s">
         <v>276</v>
-      </c>
-      <c r="J108" s="24" t="s">
-        <v>277</v>
       </c>
       <c r="K108" s="50">
         <v>1650</v>
@@ -5846,13 +5899,13 @@
         <v>4</v>
       </c>
       <c r="H109" s="24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I109" s="24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J109" s="24" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K109" s="50">
         <v>6.875</v>
@@ -5865,7 +5918,7 @@
       <c r="E110" s="25"/>
       <c r="G110" s="41"/>
       <c r="H110" s="24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I110" s="24"/>
       <c r="J110" s="24"/>
@@ -5878,7 +5931,7 @@
       <c r="E111" s="25"/>
       <c r="G111" s="44"/>
       <c r="H111" s="45" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I111" s="45"/>
       <c r="J111" s="45"/>
@@ -5897,7 +5950,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B114" s="26">
         <v>64</v>
@@ -5906,77 +5959,77 @@
         <v>200</v>
       </c>
       <c r="D114" s="26"/>
-      <c r="E114" s="152" t="s">
-        <v>371</v>
+      <c r="E114" s="151" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>307</v>
-      </c>
-      <c r="B115" s="89">
+        <v>306</v>
+      </c>
+      <c r="B115" s="88">
         <v>65</v>
       </c>
-      <c r="C115" s="90" t="s">
+      <c r="C115" s="89" t="s">
         <v>201</v>
       </c>
-      <c r="D115" s="90"/>
-      <c r="E115" s="153">
+      <c r="D115" s="89"/>
+      <c r="E115" s="152">
         <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="66" t="s">
-        <v>319</v>
-      </c>
-      <c r="B116" s="91"/>
+        <v>318</v>
+      </c>
+      <c r="B116" s="90"/>
       <c r="C116" s="26" t="s">
         <v>203</v>
       </c>
       <c r="D116" s="26"/>
-      <c r="E116" s="92">
+      <c r="E116" s="91">
         <f>SUM(E33/E115)</f>
         <v>50</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>307</v>
-      </c>
-      <c r="B117" s="91">
+        <v>306</v>
+      </c>
+      <c r="B117" s="90">
         <v>66</v>
       </c>
       <c r="C117" s="26" t="s">
         <v>202</v>
       </c>
       <c r="D117" s="26"/>
-      <c r="E117" s="163">
+      <c r="E117" s="162">
         <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="66" t="s">
-        <v>309</v>
-      </c>
-      <c r="B118" s="91">
+        <v>308</v>
+      </c>
+      <c r="B118" s="90">
         <v>67</v>
       </c>
       <c r="C118" s="26" t="s">
         <v>203</v>
       </c>
       <c r="D118" s="26"/>
-      <c r="E118" s="154">
+      <c r="E118" s="153">
         <f>SUM(E33/E115)+E117</f>
         <v>52</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H118" s="34" t="s">
         <v>26</v>
       </c>
       <c r="I118" s="34" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J118" s="34" t="s">
         <v>175</v>
@@ -5987,29 +6040,29 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>307</v>
-      </c>
-      <c r="B119" s="91">
+        <v>306</v>
+      </c>
+      <c r="B119" s="90">
         <v>68</v>
       </c>
       <c r="C119" s="26" t="s">
         <v>204</v>
       </c>
       <c r="D119" s="26"/>
-      <c r="E119" s="163">
+      <c r="E119" s="162">
         <v>4</v>
       </c>
       <c r="G119" s="7">
         <v>4</v>
       </c>
       <c r="H119" t="s">
+        <v>272</v>
+      </c>
+      <c r="I119" t="s">
         <v>273</v>
       </c>
-      <c r="I119" t="s">
+      <c r="J119" t="s">
         <v>274</v>
-      </c>
-      <c r="J119" t="s">
-        <v>275</v>
       </c>
       <c r="K119" s="8">
         <f>E131</f>
@@ -6018,16 +6071,16 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="66" t="s">
-        <v>309</v>
-      </c>
-      <c r="B120" s="91">
+        <v>308</v>
+      </c>
+      <c r="B120" s="90">
         <v>69</v>
       </c>
       <c r="C120" s="26" t="s">
         <v>205</v>
       </c>
       <c r="D120" s="26"/>
-      <c r="E120" s="154">
+      <c r="E120" s="153">
         <f>SUM(E32/E119)</f>
         <v>5</v>
       </c>
@@ -6035,13 +6088,13 @@
         <v>4</v>
       </c>
       <c r="H120" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I120" t="s">
+        <v>275</v>
+      </c>
+      <c r="J120" t="s">
         <v>276</v>
-      </c>
-      <c r="J120" t="s">
-        <v>277</v>
       </c>
       <c r="K120" s="8">
         <v>1650</v>
@@ -6049,29 +6102,29 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>307</v>
-      </c>
-      <c r="B121" s="91">
+        <v>306</v>
+      </c>
+      <c r="B121" s="90">
         <v>70</v>
       </c>
       <c r="C121" s="26" t="s">
         <v>195</v>
       </c>
       <c r="D121" s="26"/>
-      <c r="E121" s="163">
+      <c r="E121" s="162">
         <v>3</v>
       </c>
       <c r="G121" s="7">
         <v>4</v>
       </c>
       <c r="H121" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I121" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J121" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K121" s="8">
         <v>6.875</v>
@@ -6079,42 +6132,42 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="66" t="s">
-        <v>309</v>
-      </c>
-      <c r="B122" s="91">
+        <v>308</v>
+      </c>
+      <c r="B122" s="90">
         <v>71</v>
       </c>
       <c r="C122" s="26" t="s">
         <v>206</v>
       </c>
       <c r="D122" s="26"/>
-      <c r="E122" s="154">
+      <c r="E122" s="153">
         <f>SUM(E119+E121)*E120</f>
         <v>35</v>
       </c>
       <c r="G122" s="7"/>
       <c r="H122" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K122" s="8"/>
     </row>
     <row r="123" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>307</v>
-      </c>
-      <c r="B123" s="91">
+        <v>306</v>
+      </c>
+      <c r="B123" s="90">
         <v>72</v>
       </c>
       <c r="C123" s="26" t="s">
         <v>140</v>
       </c>
       <c r="D123" s="26"/>
-      <c r="E123" s="163">
+      <c r="E123" s="162">
         <v>2</v>
       </c>
       <c r="G123" s="9"/>
       <c r="H123" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I123" s="10"/>
       <c r="J123" s="10"/>
@@ -6122,225 +6175,225 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="66" t="s">
-        <v>309</v>
-      </c>
-      <c r="B124" s="91">
+        <v>308</v>
+      </c>
+      <c r="B124" s="90">
         <v>73</v>
       </c>
       <c r="C124" s="26" t="s">
         <v>197</v>
       </c>
       <c r="D124" s="26"/>
-      <c r="E124" s="154">
+      <c r="E124" s="153">
         <f>SUM(E118*E122*E123)</f>
         <v>3640</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>232</v>
-      </c>
-      <c r="B125" s="91">
+        <v>231</v>
+      </c>
+      <c r="B125" s="90">
         <v>74</v>
       </c>
       <c r="C125" s="26" t="s">
         <v>207</v>
       </c>
       <c r="D125" s="26"/>
-      <c r="E125" s="163">
+      <c r="E125" s="162">
         <v>1950</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="66" t="s">
-        <v>309</v>
-      </c>
-      <c r="B126" s="93">
+        <v>308</v>
+      </c>
+      <c r="B126" s="92">
         <v>75</v>
       </c>
-      <c r="C126" s="94" t="s">
+      <c r="C126" s="93" t="s">
         <v>157</v>
       </c>
-      <c r="D126" s="94"/>
-      <c r="E126" s="155">
+      <c r="D126" s="93"/>
+      <c r="E126" s="154">
         <f>SUM(E124/E125)</f>
         <v>1.8666666666666667</v>
       </c>
       <c r="G126" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>232</v>
-      </c>
-      <c r="B127" s="89">
+        <v>231</v>
+      </c>
+      <c r="B127" s="88">
         <v>76</v>
       </c>
-      <c r="C127" s="90" t="s">
+      <c r="C127" s="89" t="s">
         <v>208</v>
       </c>
-      <c r="D127" s="90"/>
-      <c r="E127" s="164" t="s">
-        <v>372</v>
+      <c r="D127" s="89"/>
+      <c r="E127" s="163" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="66" t="s">
-        <v>307</v>
-      </c>
-      <c r="B128" s="91">
+        <v>306</v>
+      </c>
+      <c r="B128" s="90">
         <v>77</v>
       </c>
       <c r="C128" s="26" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D128" s="26"/>
-      <c r="E128" s="163">
+      <c r="E128" s="162">
         <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>309</v>
-      </c>
-      <c r="B129" s="91">
+        <v>308</v>
+      </c>
+      <c r="B129" s="90">
         <v>78</v>
       </c>
       <c r="C129" s="26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D129" s="26"/>
-      <c r="E129" s="163">
+      <c r="E129" s="162">
         <f>SUM(E32/E128)</f>
         <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="66" t="s">
-        <v>309</v>
-      </c>
-      <c r="B130" s="93">
+        <v>308</v>
+      </c>
+      <c r="B130" s="92">
         <v>80</v>
       </c>
-      <c r="C130" s="94" t="s">
+      <c r="C130" s="93" t="s">
         <v>209</v>
       </c>
-      <c r="D130" s="94"/>
-      <c r="E130" s="155">
+      <c r="D130" s="93"/>
+      <c r="E130" s="154">
         <f>SUM(E118*E129)</f>
         <v>260</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>309</v>
-      </c>
-      <c r="B131" s="89">
+        <v>308</v>
+      </c>
+      <c r="B131" s="88">
         <v>81</v>
       </c>
-      <c r="C131" s="90" t="s">
-        <v>331</v>
-      </c>
-      <c r="D131" s="90"/>
-      <c r="E131" s="165">
+      <c r="C131" s="89" t="s">
+        <v>330</v>
+      </c>
+      <c r="D131" s="89"/>
+      <c r="E131" s="164">
         <f>SUM(E118*E32*0.66)</f>
         <v>686.4</v>
       </c>
       <c r="G131" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="66" t="s">
-        <v>319</v>
-      </c>
-      <c r="B132" s="91"/>
+        <v>318</v>
+      </c>
+      <c r="B132" s="90"/>
       <c r="C132" s="26" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D132" s="26"/>
-      <c r="E132" s="166">
+      <c r="E132" s="165">
         <v>50</v>
       </c>
       <c r="G132" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="66"/>
-      <c r="B133" s="93"/>
-      <c r="C133" s="94" t="s">
-        <v>338</v>
-      </c>
-      <c r="D133" s="94"/>
-      <c r="E133" s="167">
+      <c r="B133" s="92"/>
+      <c r="C133" s="93" t="s">
+        <v>337</v>
+      </c>
+      <c r="D133" s="93"/>
+      <c r="E133" s="166">
         <f>SUM(E131/E132)</f>
         <v>13.728</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="66" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B134" s="26"/>
       <c r="C134" s="26" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D134" s="26"/>
-      <c r="E134" s="169">
+      <c r="E134" s="168">
         <f>SUM(E36-N97-E131)</f>
         <v>1113.5999999999999</v>
       </c>
-      <c r="F134" s="162" t="s">
-        <v>386</v>
+      <c r="F134" s="161" t="s">
+        <v>384</v>
       </c>
       <c r="G134" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="66" t="s">
-        <v>319</v>
-      </c>
-      <c r="B135" s="91">
+        <v>318</v>
+      </c>
+      <c r="B135" s="90">
         <v>84</v>
       </c>
       <c r="C135" s="26" t="s">
         <v>210</v>
       </c>
       <c r="D135" s="26"/>
-      <c r="E135" s="163" t="s">
-        <v>374</v>
+      <c r="E135" s="162" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="66" t="s">
-        <v>319</v>
-      </c>
-      <c r="B136" s="91">
+        <v>318</v>
+      </c>
+      <c r="B136" s="90">
         <v>85</v>
       </c>
       <c r="C136" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D136" s="26"/>
-      <c r="E136" s="154">
+      <c r="E136" s="153">
         <v>50</v>
       </c>
       <c r="G136" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B137" s="93">
+      <c r="B137" s="92">
         <v>86</v>
       </c>
-      <c r="C137" s="94" t="s">
-        <v>211</v>
-      </c>
-      <c r="D137" s="94"/>
-      <c r="E137" s="168">
+      <c r="C137" s="93" t="s">
+        <v>397</v>
+      </c>
+      <c r="D137" s="93"/>
+      <c r="E137" s="167">
         <f>SUM(E134/E136)</f>
         <v>22.271999999999998</v>
       </c>
@@ -6356,39 +6409,39 @@
     </row>
     <row r="139" spans="1:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C139" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>314</v>
-      </c>
-      <c r="B140" s="95">
+        <v>313</v>
+      </c>
+      <c r="B140" s="94">
         <v>89</v>
       </c>
-      <c r="C140" s="96" t="s">
-        <v>213</v>
-      </c>
-      <c r="D140" s="96"/>
-      <c r="E140" s="97" t="s">
-        <v>375</v>
+      <c r="C140" s="95" t="s">
+        <v>212</v>
+      </c>
+      <c r="D140" s="95"/>
+      <c r="E140" s="96" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A141" s="80" t="s">
-        <v>307</v>
-      </c>
-      <c r="B141" s="98">
+      <c r="A141" s="79" t="s">
+        <v>306</v>
+      </c>
+      <c r="B141" s="97">
         <v>90</v>
       </c>
-      <c r="C141" s="99" t="s">
+      <c r="C141" s="98" t="s">
         <v>176</v>
       </c>
-      <c r="D141" s="99"/>
-      <c r="E141" s="163">
+      <c r="D141" s="98"/>
+      <c r="E141" s="162">
         <v>20</v>
       </c>
-      <c r="G141" s="124"/>
+      <c r="G141" s="123"/>
       <c r="H141" s="36"/>
       <c r="I141" s="36"/>
       <c r="J141" s="36"/>
@@ -6396,228 +6449,228 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="B142" s="98"/>
-      <c r="C142" s="99" t="s">
-        <v>336</v>
-      </c>
-      <c r="D142" s="99"/>
-      <c r="E142" s="163">
+        <v>318</v>
+      </c>
+      <c r="B142" s="97"/>
+      <c r="C142" s="98" t="s">
+        <v>335</v>
+      </c>
+      <c r="D142" s="98"/>
+      <c r="E142" s="162">
         <f>SUM(E33/E141)</f>
         <v>5</v>
       </c>
-      <c r="H142" s="131"/>
-      <c r="I142" s="131"/>
-      <c r="J142" s="131"/>
-      <c r="K142" s="125"/>
+      <c r="H142" s="130"/>
+      <c r="I142" s="130"/>
+      <c r="J142" s="130"/>
+      <c r="K142" s="124"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="B143" s="98"/>
-      <c r="C143" s="99" t="s">
-        <v>337</v>
-      </c>
-      <c r="D143" s="99"/>
-      <c r="E143" s="163">
+        <v>318</v>
+      </c>
+      <c r="B143" s="97"/>
+      <c r="C143" s="98" t="s">
+        <v>336</v>
+      </c>
+      <c r="D143" s="98"/>
+      <c r="E143" s="162">
         <f>SUM(E141*E142)</f>
         <v>100</v>
       </c>
-      <c r="G143" s="126"/>
-      <c r="H143" s="131"/>
-      <c r="I143" s="131"/>
-      <c r="J143" s="131"/>
-      <c r="K143" s="131"/>
+      <c r="G143" s="125"/>
+      <c r="H143" s="130"/>
+      <c r="I143" s="130"/>
+      <c r="J143" s="130"/>
+      <c r="K143" s="130"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>232</v>
-      </c>
-      <c r="B144" s="100"/>
-      <c r="C144" s="101" t="s">
-        <v>339</v>
-      </c>
-      <c r="D144" s="101"/>
-      <c r="E144" s="168">
+        <v>231</v>
+      </c>
+      <c r="B144" s="99"/>
+      <c r="C144" s="100" t="s">
+        <v>338</v>
+      </c>
+      <c r="D144" s="100"/>
+      <c r="E144" s="167">
         <f>SUM(E143/H8)</f>
         <v>5</v>
       </c>
-      <c r="G144" s="126"/>
-      <c r="H144" s="131"/>
-      <c r="I144" s="131"/>
-      <c r="K144" s="127"/>
+      <c r="G144" s="125"/>
+      <c r="H144" s="130"/>
+      <c r="I144" s="130"/>
+      <c r="K144" s="126"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>307</v>
-      </c>
-      <c r="B145" s="95">
+        <v>306</v>
+      </c>
+      <c r="B145" s="94">
         <v>91</v>
       </c>
-      <c r="C145" s="96" t="s">
-        <v>214</v>
-      </c>
-      <c r="D145" s="96"/>
-      <c r="E145" s="97" t="s">
-        <v>236</v>
-      </c>
-      <c r="G145" s="126"/>
-      <c r="H145" s="132"/>
-      <c r="I145" s="132"/>
-      <c r="J145" s="132"/>
-      <c r="K145" s="128"/>
+      <c r="C145" s="95" t="s">
+        <v>213</v>
+      </c>
+      <c r="D145" s="95"/>
+      <c r="E145" s="96" t="s">
+        <v>235</v>
+      </c>
+      <c r="G145" s="125"/>
+      <c r="H145" s="131"/>
+      <c r="I145" s="131"/>
+      <c r="J145" s="131"/>
+      <c r="K145" s="127"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="B146" s="98">
+        <v>318</v>
+      </c>
+      <c r="B146" s="97">
         <v>92</v>
       </c>
-      <c r="C146" s="99" t="s">
-        <v>215</v>
-      </c>
-      <c r="D146" s="99"/>
-      <c r="E146" s="163">
+      <c r="C146" s="98" t="s">
+        <v>214</v>
+      </c>
+      <c r="D146" s="98"/>
+      <c r="E146" s="162">
         <v>2</v>
       </c>
-      <c r="G146" s="126"/>
-      <c r="H146" s="133"/>
-      <c r="I146" s="132"/>
-      <c r="J146" s="132"/>
-      <c r="K146" s="128"/>
+      <c r="G146" s="125"/>
+      <c r="H146" s="132"/>
+      <c r="I146" s="131"/>
+      <c r="J146" s="131"/>
+      <c r="K146" s="127"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="B147" s="98"/>
-      <c r="C147" s="99" t="s">
-        <v>340</v>
-      </c>
-      <c r="D147" s="99"/>
-      <c r="E147" s="154">
+        <v>318</v>
+      </c>
+      <c r="B147" s="97"/>
+      <c r="C147" s="98" t="s">
+        <v>339</v>
+      </c>
+      <c r="D147" s="98"/>
+      <c r="E147" s="153">
         <f>SUM(E143*E146)</f>
         <v>200</v>
       </c>
-      <c r="G147" s="126"/>
-      <c r="H147" s="133"/>
-      <c r="I147" s="132"/>
-      <c r="J147" s="132"/>
-      <c r="K147" s="128"/>
+      <c r="G147" s="125"/>
+      <c r="H147" s="132"/>
+      <c r="I147" s="131"/>
+      <c r="J147" s="131"/>
+      <c r="K147" s="127"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>314</v>
-      </c>
-      <c r="B148" s="100"/>
-      <c r="C148" s="101" t="s">
-        <v>339</v>
-      </c>
-      <c r="D148" s="101"/>
-      <c r="E148" s="168">
+        <v>313</v>
+      </c>
+      <c r="B148" s="99"/>
+      <c r="C148" s="100" t="s">
+        <v>338</v>
+      </c>
+      <c r="D148" s="100"/>
+      <c r="E148" s="167">
         <f>SUM(E143*E146/H8)</f>
         <v>10</v>
       </c>
-      <c r="G148" s="129"/>
-      <c r="H148" s="133"/>
-      <c r="I148" s="132"/>
-      <c r="J148" s="132"/>
-      <c r="K148" s="130"/>
+      <c r="G148" s="128"/>
+      <c r="H148" s="132"/>
+      <c r="I148" s="131"/>
+      <c r="J148" s="131"/>
+      <c r="K148" s="129"/>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="B149" s="95">
+        <v>318</v>
+      </c>
+      <c r="B149" s="94">
         <v>93</v>
       </c>
-      <c r="C149" s="96" t="s">
+      <c r="C149" s="95" t="s">
         <v>86</v>
       </c>
-      <c r="D149" s="96"/>
-      <c r="E149" s="97" t="s">
-        <v>376</v>
+      <c r="D149" s="95"/>
+      <c r="E149" s="96" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="B150" s="98">
+        <v>318</v>
+      </c>
+      <c r="B150" s="97">
         <v>94</v>
       </c>
-      <c r="C150" s="99" t="s">
-        <v>341</v>
-      </c>
-      <c r="D150" s="99"/>
-      <c r="E150" s="170">
+      <c r="C150" s="98" t="s">
+        <v>340</v>
+      </c>
+      <c r="D150" s="98"/>
+      <c r="E150" s="169">
         <f>SUM(E142*E32)/G9</f>
         <v>151.5151515151515</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B151" s="100"/>
-      <c r="C151" s="101" t="s">
-        <v>342</v>
-      </c>
-      <c r="D151" s="101"/>
-      <c r="E151" s="168">
+      <c r="B151" s="99"/>
+      <c r="C151" s="100" t="s">
+        <v>341</v>
+      </c>
+      <c r="D151" s="100"/>
+      <c r="E151" s="167">
         <f>SUM(E150/I9)</f>
         <v>340.90909090909088</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A153" s="136" t="s">
+      <c r="A153" s="135" t="s">
+        <v>376</v>
+      </c>
+      <c r="B153" s="123" t="s">
+        <v>375</v>
+      </c>
+      <c r="C153" s="133" t="s">
+        <v>73</v>
+      </c>
+      <c r="D153" s="133" t="s">
+        <v>173</v>
+      </c>
+      <c r="E153" s="133"/>
+      <c r="F153" s="134"/>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A154" s="136" t="s">
+        <v>377</v>
+      </c>
+      <c r="B154" s="128" t="s">
+        <v>375</v>
+      </c>
+      <c r="C154" s="19" t="s">
         <v>378</v>
-      </c>
-      <c r="B153" s="124" t="s">
-        <v>377</v>
-      </c>
-      <c r="C153" s="134" t="s">
-        <v>73</v>
-      </c>
-      <c r="D153" s="134" t="s">
-        <v>173</v>
-      </c>
-      <c r="E153" s="134"/>
-      <c r="F153" s="135"/>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A154" s="137" t="s">
-        <v>379</v>
-      </c>
-      <c r="B154" s="129" t="s">
-        <v>377</v>
-      </c>
-      <c r="C154" s="19" t="s">
-        <v>380</v>
       </c>
       <c r="D154" s="19">
         <v>100</v>
       </c>
       <c r="E154" s="19"/>
-      <c r="F154" s="130"/>
+      <c r="F154" s="129"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C156" s="102" t="s">
-        <v>348</v>
+      <c r="C156" s="101" t="s">
+        <v>347</v>
       </c>
       <c r="D156" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="E156" s="14" t="s">
         <v>343</v>
       </c>
-      <c r="E156" s="14" t="s">
+      <c r="F156" s="14" t="s">
         <v>344</v>
-      </c>
-      <c r="F156" s="14" t="s">
-        <v>345</v>
       </c>
       <c r="G156" s="14" t="s">
         <v>80</v>
@@ -6627,7 +6680,7 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C157">
         <f>E35</f>
@@ -6656,7 +6709,7 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E158" s="17"/>
       <c r="F158" s="17"/>
@@ -6668,7 +6721,7 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D159">
         <f>F157</f>
@@ -6692,6 +6745,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
